--- a/results/tabla_2a_params_raw.xlsx
+++ b/results/tabla_2a_params_raw.xlsx
@@ -456,28 +456,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>3.729677101688702</v>
+        <v>3.708644720598015</v>
       </c>
       <c r="D2">
-        <v>0.9255256500497601</v>
+        <v>0.967821078030329</v>
       </c>
       <c r="E2">
-        <v>15.02982794924501</v>
+        <v>14.2113516390976</v>
       </c>
       <c r="F2">
-        <v>0.0641513457331408</v>
+        <v>0.05584497918732768</v>
       </c>
       <c r="G2">
-        <v>1.31632166199663</v>
+        <v>1.310666505458409</v>
       </c>
       <c r="H2">
-        <v>-0.07739343255008291</v>
+        <v>-0.03270804553550444</v>
       </c>
       <c r="I2">
-        <v>2.710036756543343</v>
+        <v>2.654041056452323</v>
       </c>
       <c r="J2">
-        <v>0.7110921963567495</v>
+        <v>0.6854077736072096</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -488,28 +488,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.8196440438992491</v>
+        <v>0.8137099044028323</v>
       </c>
       <c r="D3">
-        <v>0.7406109869396017</v>
+        <v>0.7371836681347025</v>
       </c>
       <c r="E3">
-        <v>0.9071109807263799</v>
+        <v>0.8981802461775095</v>
       </c>
       <c r="F3">
-        <v>0.0001208181465873806</v>
+        <v>4.296284643768563E-05</v>
       </c>
       <c r="G3">
-        <v>-0.1988851257751893</v>
+        <v>-0.2061513592965412</v>
       </c>
       <c r="H3">
-        <v>-0.3002797754255173</v>
+        <v>-0.3049182073457303</v>
       </c>
       <c r="I3">
-        <v>-0.09749047612486135</v>
+        <v>-0.1073845112473521</v>
       </c>
       <c r="J3">
-        <v>0.05173291471175798</v>
+        <v>0.05039217497272878</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -520,28 +520,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>5.070128697566031</v>
+        <v>1.627478410597427</v>
       </c>
       <c r="D4">
-        <v>0.5996261532199313</v>
+        <v>0.2130904522981998</v>
       </c>
       <c r="E4">
-        <v>42.87038660979498</v>
+        <v>12.42986698087319</v>
       </c>
       <c r="F4">
-        <v>0.1361177548336237</v>
+        <v>0.6386988209395483</v>
       </c>
       <c r="G4">
-        <v>1.623366201416232</v>
+        <v>0.4870318296346763</v>
       </c>
       <c r="H4">
-        <v>-0.5114488959265175</v>
+        <v>-1.546038544737695</v>
       </c>
       <c r="I4">
-        <v>3.758181298758982</v>
+        <v>2.520102204007048</v>
       </c>
       <c r="J4">
-        <v>1.089211390710186</v>
+        <v>1.037299863879628</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -552,28 +552,28 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>1.917414276817897</v>
+        <v>2.624401475035067</v>
       </c>
       <c r="D5">
-        <v>0.7166262350497518</v>
+        <v>1.009805275502782</v>
       </c>
       <c r="E5">
-        <v>5.130258046846218</v>
+        <v>6.820605189190522</v>
       </c>
       <c r="F5">
-        <v>0.1948364333589885</v>
+        <v>0.04770493174780412</v>
       </c>
       <c r="G5">
-        <v>0.6509775475587174</v>
+        <v>0.9648528605350162</v>
       </c>
       <c r="H5">
-        <v>-0.3332008643296411</v>
+        <v>0.009757515733628153</v>
       </c>
       <c r="I5">
-        <v>1.635155959447076</v>
+        <v>1.919948205336404</v>
       </c>
       <c r="J5">
-        <v>0.5021410697601754</v>
+        <v>0.4873024975637605</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -584,28 +584,28 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>1.833184599563281</v>
+        <v>2.649322056339175</v>
       </c>
       <c r="D6">
-        <v>0.6915789624461222</v>
+        <v>1.025684963730567</v>
       </c>
       <c r="E6">
-        <v>4.859265475904055</v>
+        <v>6.843141516549523</v>
       </c>
       <c r="F6">
-        <v>0.2230294326160576</v>
+        <v>0.04418365414590165</v>
       </c>
       <c r="G6">
-        <v>0.6060546727683636</v>
+        <v>0.9743037794720801</v>
       </c>
       <c r="H6">
-        <v>-0.3687779443081254</v>
+        <v>0.0253606467040014</v>
       </c>
       <c r="I6">
-        <v>1.580887289844852</v>
+        <v>1.923246912240159</v>
       </c>
       <c r="J6">
-        <v>0.4973727194815029</v>
+        <v>0.4841635561945123</v>
       </c>
     </row>
   </sheetData>
